--- a/output/sample.its_50snippets_random.xlsx
+++ b/output/sample.its_50snippets_random.xlsx
@@ -462,952 +462,952 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5:45 AM</t>
+          <t>6:10 AM</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1208.133333</v>
+        <v>2710.555</v>
       </c>
       <c r="D2" t="n">
-        <v>1238.133333</v>
+        <v>2740.555</v>
       </c>
       <c r="E2" t="n">
-        <v>3.55</v>
+        <v>4.655</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5:57 AM</t>
+          <t>6:17 AM</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1924.645</v>
+        <v>3136.858</v>
       </c>
       <c r="D3" t="n">
-        <v>1954.645</v>
+        <v>3166.858</v>
       </c>
       <c r="E3" t="n">
-        <v>0.995</v>
+        <v>6.486</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6:05 AM</t>
+          <t>6:23 AM</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2383.3</v>
+        <v>3473.17</v>
       </c>
       <c r="D4" t="n">
-        <v>2413.3</v>
+        <v>3503.17</v>
       </c>
       <c r="E4" t="n">
-        <v>3.9275</v>
+        <v>1.063333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6:12 AM</t>
+          <t>6:30 AM</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2827.976667</v>
+        <v>3867.07</v>
       </c>
       <c r="D5" t="n">
-        <v>2857.976667</v>
+        <v>3897.07</v>
       </c>
       <c r="E5" t="n">
-        <v>2.923333</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6:19 AM</t>
+          <t>6:37 AM</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3217.113333</v>
+        <v>4332.1125</v>
       </c>
       <c r="D6" t="n">
-        <v>3247.113333</v>
+        <v>4362.1125</v>
       </c>
       <c r="E6" t="n">
-        <v>16.883333</v>
+        <v>1.4225</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>115</v>
+        <v>174</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6:22 AM</t>
+          <t>6:52 AM</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3436.59</v>
+        <v>5193.04</v>
       </c>
       <c r="D7" t="n">
-        <v>3466.59</v>
+        <v>5223.04</v>
       </c>
       <c r="E7" t="n">
-        <v>13.753333</v>
+        <v>71.97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6:33 AM</t>
+          <t>7:12 AM</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4068.95</v>
+        <v>6404.45</v>
       </c>
       <c r="D8" t="n">
-        <v>4098.95</v>
+        <v>6434.45</v>
       </c>
       <c r="E8" t="n">
-        <v>5.37</v>
+        <v>1.525</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6:45 AM</t>
+          <t>7:30 AM</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4808.78</v>
+        <v>7516.66</v>
       </c>
       <c r="D9" t="n">
-        <v>4838.78</v>
+        <v>7546.66</v>
       </c>
       <c r="E9" t="n">
-        <v>2.95</v>
+        <v>27.63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>174</v>
+        <v>331</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6:52 AM</t>
+          <t>8:10 AM</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5193.04</v>
+        <v>9903.9</v>
       </c>
       <c r="D10" t="n">
-        <v>5223.04</v>
+        <v>9933.9</v>
       </c>
       <c r="E10" t="n">
-        <v>71.97</v>
+        <v>66.37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>239</v>
+        <v>344</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7:24 AM</t>
+          <t>8:17 AM</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7146.62</v>
+        <v>10303.675</v>
       </c>
       <c r="D11" t="n">
-        <v>7176.62</v>
+        <v>10333.675</v>
       </c>
       <c r="E11" t="n">
-        <v>32.95</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>250</v>
+        <v>483</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7:30 AM</t>
+          <t>9:27 AM</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7488.7825</v>
+        <v>14487.21</v>
       </c>
       <c r="D12" t="n">
-        <v>7518.7825</v>
+        <v>14517.21</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08749999999999999</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>286</v>
+        <v>509</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7:48 AM</t>
+          <t>9:39 AM</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8565.615</v>
+        <v>15258.83</v>
       </c>
       <c r="D13" t="n">
-        <v>8595.615</v>
+        <v>15288.83</v>
       </c>
       <c r="E13" t="n">
-        <v>3.93</v>
+        <v>2.655</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>293</v>
+        <v>531</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7:51 AM</t>
+          <t>9:50 AM</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8779.4</v>
+        <v>15908.795</v>
       </c>
       <c r="D14" t="n">
-        <v>8809.4</v>
+        <v>15938.795</v>
       </c>
       <c r="E14" t="n">
-        <v>11.2</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>321</v>
+        <v>981</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8:05 AM</t>
+          <t>1:35 PM</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9601.75</v>
+        <v>29415.15</v>
       </c>
       <c r="D15" t="n">
-        <v>9631.75</v>
+        <v>29445.15</v>
       </c>
       <c r="E15" t="n">
-        <v>3.92</v>
+        <v>13.746667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>331</v>
+        <v>995</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8:10 AM</t>
+          <t>1:42 PM</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>9903.9</v>
+        <v>29826.6</v>
       </c>
       <c r="D16" t="n">
-        <v>9933.9</v>
+        <v>29856.6</v>
       </c>
       <c r="E16" t="n">
-        <v>66.37</v>
+        <v>6.235</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>345</v>
+        <v>1003</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8:18 AM</t>
+          <t>1:46 PM</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>10347.085</v>
+        <v>30076.196667</v>
       </c>
       <c r="D17" t="n">
-        <v>10377.085</v>
+        <v>30106.196667</v>
       </c>
       <c r="E17" t="n">
-        <v>2.655</v>
+        <v>3.146667</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>363</v>
+        <v>1016</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8:26 AM</t>
+          <t>1:53 PM</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>10877.7975</v>
+        <v>30454.73</v>
       </c>
       <c r="D18" t="n">
-        <v>10907.7975</v>
+        <v>30484.73</v>
       </c>
       <c r="E18" t="n">
-        <v>2.7</v>
+        <v>24.88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>372</v>
+        <v>1025</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8:31 AM</t>
+          <t>1:57 PM</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>11144.155</v>
+        <v>30728.4775</v>
       </c>
       <c r="D19" t="n">
-        <v>11174.155</v>
+        <v>30758.4775</v>
       </c>
       <c r="E19" t="n">
-        <v>5.175</v>
+        <v>4.9925</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>432</v>
+        <v>1031</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>9:01 AM</t>
+          <t>2:00 PM</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>12941.465</v>
+        <v>30916.155</v>
       </c>
       <c r="D20" t="n">
-        <v>12971.465</v>
+        <v>30946.155</v>
       </c>
       <c r="E20" t="n">
-        <v>2.38</v>
+        <v>5.525</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>450</v>
+        <v>1037</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>9:10 AM</t>
+          <t>2:03 PM</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>13489.7525</v>
+        <v>31099.75</v>
       </c>
       <c r="D21" t="n">
-        <v>13519.7525</v>
+        <v>31129.75</v>
       </c>
       <c r="E21" t="n">
-        <v>3.3175</v>
+        <v>6.075</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>482</v>
+        <v>1052</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>9:26 AM</t>
+          <t>2:11 PM</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>14442.785</v>
+        <v>31541.535</v>
       </c>
       <c r="D22" t="n">
-        <v>14472.785</v>
+        <v>31571.535</v>
       </c>
       <c r="E22" t="n">
-        <v>8.75</v>
+        <v>0.8425</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>518</v>
+        <v>1066</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>9:44 AM</t>
+          <t>2:18 PM</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>15517.59</v>
+        <v>31970.67</v>
       </c>
       <c r="D23" t="n">
-        <v>15547.59</v>
+        <v>32000.67</v>
       </c>
       <c r="E23" t="n">
-        <v>20.516667</v>
+        <v>17.12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>575</v>
+        <v>1073</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>10:12 A</t>
+          <t>2:21 PM</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>17229.33</v>
+        <v>32172.445</v>
       </c>
       <c r="D24" t="n">
-        <v>17259.33</v>
+        <v>32202.445</v>
       </c>
       <c r="E24" t="n">
-        <v>1.03</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>981</v>
+        <v>1101</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1:35 PM</t>
+          <t>2:35 PM</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>29415.15</v>
+        <v>33002.63</v>
       </c>
       <c r="D25" t="n">
-        <v>29445.15</v>
+        <v>33032.63</v>
       </c>
       <c r="E25" t="n">
-        <v>13.746667</v>
+        <v>2.815</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>988</v>
+        <v>1114</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1:39 PM</t>
+          <t>2:42 PM</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>29624.0375</v>
+        <v>33419.09</v>
       </c>
       <c r="D26" t="n">
-        <v>29654.0375</v>
+        <v>33449.09</v>
       </c>
       <c r="E26" t="n">
-        <v>5.165</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1022</v>
+        <v>1157</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1:56 PM</t>
+          <t>3:03 PM</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>30644.296667</v>
+        <v>34686.29</v>
       </c>
       <c r="D27" t="n">
-        <v>30674.296667</v>
+        <v>34716.29</v>
       </c>
       <c r="E27" t="n">
-        <v>24.493333</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1032</v>
+        <v>1166</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2:01 PM</t>
+          <t>3:08 PM</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>30942.866667</v>
+        <v>34958.575</v>
       </c>
       <c r="D28" t="n">
-        <v>30972.866667</v>
+        <v>34988.575</v>
       </c>
       <c r="E28" t="n">
-        <v>9.316667000000001</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1040</v>
+        <v>1185</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2:05 PM</t>
+          <t>3:17 PM</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>31190.402</v>
+        <v>35530.52</v>
       </c>
       <c r="D29" t="n">
-        <v>31220.402</v>
+        <v>35560.52</v>
       </c>
       <c r="E29" t="n">
-        <v>0.65</v>
+        <v>115.925</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1049</v>
+        <v>1192</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2:09 PM</t>
+          <t>3:21 PM</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>31454.845</v>
+        <v>35742.3425</v>
       </c>
       <c r="D30" t="n">
-        <v>31484.845</v>
+        <v>35772.3425</v>
       </c>
       <c r="E30" t="n">
-        <v>4.085</v>
+        <v>13.795</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1078</v>
+        <v>1204</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2:24 PM</t>
+          <t>3:27 PM</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>32329.13</v>
+        <v>36097.916667</v>
       </c>
       <c r="D31" t="n">
-        <v>32359.13</v>
+        <v>36127.916667</v>
       </c>
       <c r="E31" t="n">
-        <v>18.55</v>
+        <v>82.06</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1166</v>
+        <v>1212</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3:08 PM</t>
+          <t>3:31 PM</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>34958.575</v>
+        <v>36344.033333</v>
       </c>
       <c r="D32" t="n">
-        <v>34988.575</v>
+        <v>36374.033333</v>
       </c>
       <c r="E32" t="n">
-        <v>2.23</v>
+        <v>13.163333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1195</v>
+        <v>1230</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3:23 PM</t>
+          <t>3:40 PM</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>35849.34</v>
+        <v>36884.13</v>
       </c>
       <c r="D33" t="n">
-        <v>35879.34</v>
+        <v>36914.13</v>
       </c>
       <c r="E33" t="n">
-        <v>6.04</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1224</v>
+        <v>1245</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3:37 PM</t>
+          <t>3:47 PM</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>36710.185</v>
+        <v>37332.09</v>
       </c>
       <c r="D34" t="n">
-        <v>36740.185</v>
+        <v>37362.09</v>
       </c>
       <c r="E34" t="n">
-        <v>3.49</v>
+        <v>193.12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1240</v>
+        <v>1274</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3:45 PM</t>
+          <t>4:02 PM</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>37180.42</v>
+        <v>38209.85</v>
       </c>
       <c r="D35" t="n">
-        <v>37210.42</v>
+        <v>38239.85</v>
       </c>
       <c r="E35" t="n">
-        <v>20.123333</v>
+        <v>4.86</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1265</v>
+        <v>1323</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3:58 PM</t>
+          <t>4:26 PM</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>37948.92</v>
+        <v>39677.255</v>
       </c>
       <c r="D36" t="n">
-        <v>37978.92</v>
+        <v>39707.255</v>
       </c>
       <c r="E36" t="n">
-        <v>3.725</v>
+        <v>57.735</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1276</v>
+        <v>1352</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4:03 PM</t>
+          <t>4:41 PM</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>38263.303333</v>
+        <v>40545.91</v>
       </c>
       <c r="D37" t="n">
-        <v>38293.303333</v>
+        <v>40575.91</v>
       </c>
       <c r="E37" t="n">
-        <v>3.406667</v>
+        <v>3.843333</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1294</v>
+        <v>1367</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4:12 PM</t>
+          <t>4:48 PM</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>38801.276667</v>
+        <v>40993.815</v>
       </c>
       <c r="D38" t="n">
-        <v>38831.276667</v>
+        <v>41023.815</v>
       </c>
       <c r="E38" t="n">
-        <v>16.913333</v>
+        <v>30.44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1301</v>
+        <v>1379</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4:15 PM</t>
+          <t>4:54 PM</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>39012.535</v>
+        <v>41352.525</v>
       </c>
       <c r="D39" t="n">
-        <v>39042.535</v>
+        <v>41382.525</v>
       </c>
       <c r="E39" t="n">
-        <v>7.56</v>
+        <v>1.775</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1333</v>
+        <v>1393</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4:31 PM</t>
+          <t>5:01 PM</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>39975.185</v>
+        <v>41774.303333</v>
       </c>
       <c r="D40" t="n">
-        <v>40005.185</v>
+        <v>41804.303333</v>
       </c>
       <c r="E40" t="n">
-        <v>26.385</v>
+        <v>14.303333</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1343</v>
+        <v>1406</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4:36 PM</t>
+          <t>5:08 PM</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>40265.54</v>
+        <v>42163.55</v>
       </c>
       <c r="D41" t="n">
-        <v>40295.54</v>
+        <v>42193.55</v>
       </c>
       <c r="E41" t="n">
-        <v>30.27</v>
+        <v>14.93</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1353</v>
+        <v>1414</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4:42 PM</t>
+          <t>5:12 PM</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>40589.99</v>
+        <v>42400.085</v>
       </c>
       <c r="D42" t="n">
-        <v>40619.99</v>
+        <v>42430.085</v>
       </c>
       <c r="E42" t="n">
-        <v>4.08</v>
+        <v>51.73</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1381</v>
+        <v>1425</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4:56 PM</t>
+          <t>5:17 PM</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>41427.32</v>
+        <v>42732.5175</v>
       </c>
       <c r="D43" t="n">
-        <v>41457.32</v>
+        <v>42762.5175</v>
       </c>
       <c r="E43" t="n">
-        <v>5.19</v>
+        <v>0.9325</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1401</v>
+        <v>1436</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5:05 PM</t>
+          <t>5:23 PM</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>42008.86</v>
+        <v>43062.525</v>
       </c>
       <c r="D44" t="n">
-        <v>42038.86</v>
+        <v>43092.525</v>
       </c>
       <c r="E44" t="n">
-        <v>4.0175</v>
+        <v>11.06</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1410</v>
+        <v>1443</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5:10 PM</t>
+          <t>5:26 PM</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>42278.335</v>
+        <v>43275.036667</v>
       </c>
       <c r="D45" t="n">
-        <v>42308.335</v>
+        <v>43305.036667</v>
       </c>
       <c r="E45" t="n">
-        <v>44.55</v>
+        <v>14.33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1417</v>
+        <v>1451</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5:13 PM</t>
+          <t>5:30 PM</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>42486.06</v>
+        <v>43516.02</v>
       </c>
       <c r="D46" t="n">
-        <v>42516.06</v>
+        <v>43546.02</v>
       </c>
       <c r="E46" t="n">
-        <v>61.41</v>
+        <v>88.58</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1459</v>
+        <v>1481</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5:34 PM</t>
+          <t>5:45 PM</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>43757.37</v>
+        <v>44405.94</v>
       </c>
       <c r="D47" t="n">
-        <v>43787.37</v>
+        <v>44435.94</v>
       </c>
       <c r="E47" t="n">
-        <v>15.4</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1475</v>
+        <v>1535</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5:42 PM</t>
+          <t>6:12 PM</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>44227.06</v>
+        <v>46024.31</v>
       </c>
       <c r="D48" t="n">
-        <v>44257.06</v>
+        <v>46054.31</v>
       </c>
       <c r="E48" t="n">
-        <v>46.02</v>
+        <v>7.985</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1516</v>
+        <v>1545</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6:03 PM</t>
+          <t>6:17 PM</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>45455.86</v>
+        <v>46329.05</v>
       </c>
       <c r="D49" t="n">
-        <v>45485.86</v>
+        <v>46359.05</v>
       </c>
       <c r="E49" t="n">
-        <v>28.36</v>
+        <v>3.473333</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1535</v>
+        <v>1554</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6:12 PM</t>
+          <t>6:22 PM</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>46024.31</v>
+        <v>46615.0725</v>
       </c>
       <c r="D50" t="n">
-        <v>46054.31</v>
+        <v>46645.0725</v>
       </c>
       <c r="E50" t="n">
-        <v>7.985</v>
+        <v>1.5575</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1548</v>
+        <v>1611</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6:19 PM</t>
+          <t>6:50 PM</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>46421.78</v>
+        <v>48310.16</v>
       </c>
       <c r="D51" t="n">
-        <v>46451.78</v>
+        <v>48340.16</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6875</v>
+        <v>3.305</v>
       </c>
     </row>
   </sheetData>

--- a/output/sample.its_50snippets_random.xlsx
+++ b/output/sample.its_50snippets_random.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,765 +459,1015 @@
           <t>AWC</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>TVN</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CTC</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6:10 AM</t>
+          <t>5:26 AM</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2710.555</v>
+        <v>44.352</v>
       </c>
       <c r="D2" t="n">
-        <v>2740.555</v>
+        <v>74.352</v>
       </c>
       <c r="E2" t="n">
-        <v>4.655</v>
+        <v>3.348</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6:17 AM</t>
+          <t>6:05 AM</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3136.858</v>
+        <v>2369.39</v>
       </c>
       <c r="D3" t="n">
-        <v>3166.858</v>
+        <v>2399.39</v>
       </c>
       <c r="E3" t="n">
-        <v>6.486</v>
+        <v>4.37</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6:23 AM</t>
+          <t>6:16 AM</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3473.17</v>
+        <v>3079.71</v>
       </c>
       <c r="D4" t="n">
-        <v>3503.17</v>
+        <v>3109.71</v>
       </c>
       <c r="E4" t="n">
-        <v>1.063333</v>
+        <v>14.55</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6:30 AM</t>
+          <t>6:20 AM</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3867.07</v>
+        <v>3312.795</v>
       </c>
       <c r="D5" t="n">
-        <v>3897.07</v>
+        <v>3342.795</v>
       </c>
       <c r="E5" t="n">
-        <v>0.835</v>
+        <v>0.808333</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6:37 AM</t>
+          <t>6:25 AM</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4332.1125</v>
+        <v>3614.45</v>
       </c>
       <c r="D6" t="n">
-        <v>4362.1125</v>
+        <v>3644.45</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4225</v>
+        <v>3.595</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6:52 AM</t>
+          <t>6:31 AM</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5193.04</v>
+        <v>3944.838333</v>
       </c>
       <c r="D7" t="n">
-        <v>5223.04</v>
+        <v>3974.838333</v>
       </c>
       <c r="E7" t="n">
-        <v>71.97</v>
+        <v>1.058333</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.166667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>214</v>
+        <v>146</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7:12 AM</t>
+          <t>6:38 AM</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6404.45</v>
+        <v>4379.04</v>
       </c>
       <c r="D8" t="n">
-        <v>6434.45</v>
+        <v>4409.04</v>
       </c>
       <c r="E8" t="n">
-        <v>1.525</v>
+        <v>3.49</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251</v>
+        <v>169</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7:30 AM</t>
+          <t>6:49 AM</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7516.66</v>
+        <v>5046.976667</v>
       </c>
       <c r="D9" t="n">
-        <v>7546.66</v>
+        <v>5076.976667</v>
       </c>
       <c r="E9" t="n">
-        <v>27.63</v>
+        <v>4.816667</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>331</v>
+        <v>186</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8:10 AM</t>
+          <t>6:58 AM</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9903.9</v>
+        <v>5567.224</v>
       </c>
       <c r="D10" t="n">
-        <v>9933.9</v>
+        <v>5597.224</v>
       </c>
       <c r="E10" t="n">
-        <v>66.37</v>
+        <v>4.226</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>344</v>
+        <v>222</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8:17 AM</t>
+          <t>7:16 AM</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>10303.675</v>
+        <v>6648.33</v>
       </c>
       <c r="D11" t="n">
-        <v>10333.675</v>
+        <v>6678.33</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5</v>
+        <v>2.5925</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>483</v>
+        <v>234</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9:27 AM</t>
+          <t>7:22 AM</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>14487.21</v>
+        <v>7006.473333</v>
       </c>
       <c r="D12" t="n">
-        <v>14517.21</v>
+        <v>7036.473333</v>
       </c>
       <c r="E12" t="n">
-        <v>5.45</v>
+        <v>3.553333</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.333333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>509</v>
+        <v>243</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>9:39 AM</t>
+          <t>7:26 AM</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15258.83</v>
+        <v>7276.68</v>
       </c>
       <c r="D13" t="n">
-        <v>15288.83</v>
+        <v>7306.68</v>
       </c>
       <c r="E13" t="n">
-        <v>2.655</v>
+        <v>9.06</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>531</v>
+        <v>251</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>9:50 AM</t>
+          <t>7:30 AM</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15908.795</v>
+        <v>7516.66</v>
       </c>
       <c r="D14" t="n">
-        <v>15938.795</v>
+        <v>7546.66</v>
       </c>
       <c r="E14" t="n">
-        <v>4.8</v>
+        <v>27.63</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>981</v>
+        <v>284</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1:35 PM</t>
+          <t>7:47 AM</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>29415.15</v>
+        <v>8510.639999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>29445.15</v>
+        <v>8540.639999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>13.746667</v>
+        <v>0.98</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>995</v>
+        <v>332</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1:42 PM</t>
+          <t>8:11 AM</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>29826.6</v>
+        <v>9944.236666999999</v>
       </c>
       <c r="D16" t="n">
-        <v>29856.6</v>
+        <v>9974.236666999999</v>
       </c>
       <c r="E16" t="n">
-        <v>6.235</v>
+        <v>1.893333</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1003</v>
+        <v>348</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1:46 PM</t>
+          <t>8:19 AM</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>30076.196667</v>
+        <v>10436.51</v>
       </c>
       <c r="D17" t="n">
-        <v>30106.196667</v>
+        <v>10466.51</v>
       </c>
       <c r="E17" t="n">
-        <v>3.146667</v>
+        <v>3.915</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1016</v>
+        <v>365</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1:53 PM</t>
+          <t>8:27 AM</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>30454.73</v>
+        <v>10930.83</v>
       </c>
       <c r="D18" t="n">
-        <v>30484.73</v>
+        <v>10960.83</v>
       </c>
       <c r="E18" t="n">
-        <v>24.88</v>
+        <v>15.57</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1025</v>
+        <v>378</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1:57 PM</t>
+          <t>8:34 AM</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>30728.4775</v>
+        <v>11323.225</v>
       </c>
       <c r="D19" t="n">
-        <v>30758.4775</v>
+        <v>11353.225</v>
       </c>
       <c r="E19" t="n">
-        <v>4.9925</v>
+        <v>8.6</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1031</v>
+        <v>407</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2:00 PM</t>
+          <t>8:48 AM</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>30916.155</v>
+        <v>12193.74</v>
       </c>
       <c r="D20" t="n">
-        <v>30946.155</v>
+        <v>12223.74</v>
       </c>
       <c r="E20" t="n">
-        <v>5.525</v>
+        <v>1.355</v>
+      </c>
+      <c r="F20" t="n">
+        <v>58.128333</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1037</v>
+        <v>527</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2:03 PM</t>
+          <t>9:48 AM</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>31099.75</v>
+        <v>15787.9</v>
       </c>
       <c r="D21" t="n">
-        <v>31129.75</v>
+        <v>15817.9</v>
       </c>
       <c r="E21" t="n">
-        <v>6.075</v>
+        <v>2.94</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1052</v>
+        <v>567</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2:11 PM</t>
+          <t>10:08 A</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>31541.535</v>
+        <v>16994.61</v>
       </c>
       <c r="D22" t="n">
-        <v>31571.535</v>
+        <v>17024.61</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8425</v>
+        <v>7.28</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1066</v>
+        <v>980</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2:18 PM</t>
+          <t>1:35 PM</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>31970.67</v>
+        <v>29392.66</v>
       </c>
       <c r="D23" t="n">
-        <v>32000.67</v>
+        <v>29422.66</v>
       </c>
       <c r="E23" t="n">
-        <v>17.12</v>
+        <v>6.8</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1073</v>
+        <v>991</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2:21 PM</t>
+          <t>1:40 PM</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>32172.445</v>
+        <v>29712.875</v>
       </c>
       <c r="D24" t="n">
-        <v>32202.445</v>
+        <v>29742.875</v>
       </c>
       <c r="E24" t="n">
-        <v>12.6</v>
+        <v>10.58</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1101</v>
+        <v>1003</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2:35 PM</t>
+          <t>1:46 PM</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>33002.63</v>
+        <v>30076.196667</v>
       </c>
       <c r="D25" t="n">
-        <v>33032.63</v>
+        <v>30106.196667</v>
       </c>
       <c r="E25" t="n">
-        <v>2.815</v>
+        <v>3.146667</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1114</v>
+        <v>1030</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2:42 PM</t>
+          <t>2:00 PM</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>33419.09</v>
+        <v>30884.16</v>
       </c>
       <c r="D26" t="n">
-        <v>33449.09</v>
+        <v>30914.16</v>
       </c>
       <c r="E26" t="n">
-        <v>2.96</v>
+        <v>9.41</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1157</v>
+        <v>1049</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3:03 PM</t>
+          <t>2:09 PM</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>34686.29</v>
+        <v>31454.845</v>
       </c>
       <c r="D27" t="n">
-        <v>34716.29</v>
+        <v>31484.845</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>4.085</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1166</v>
+        <v>1090</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3:08 PM</t>
+          <t>2:30 PM</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>34958.575</v>
+        <v>32688.42</v>
       </c>
       <c r="D28" t="n">
-        <v>34988.575</v>
+        <v>32718.42</v>
       </c>
       <c r="E28" t="n">
-        <v>2.23</v>
+        <v>19.165</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1185</v>
+        <v>1104</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3:17 PM</t>
+          <t>2:37 PM</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>35530.52</v>
+        <v>33100.574</v>
       </c>
       <c r="D29" t="n">
-        <v>35560.52</v>
+        <v>33130.574</v>
       </c>
       <c r="E29" t="n">
-        <v>115.925</v>
+        <v>2.998</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1192</v>
+        <v>1158</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3:21 PM</t>
+          <t>3:04 PM</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>35742.3425</v>
+        <v>34727.39</v>
       </c>
       <c r="D30" t="n">
-        <v>35772.3425</v>
+        <v>34757.39</v>
       </c>
       <c r="E30" t="n">
-        <v>13.795</v>
+        <v>1.79</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1204</v>
+        <v>1176</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3:27 PM</t>
+          <t>3:13 PM</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>36097.916667</v>
+        <v>35251</v>
       </c>
       <c r="D31" t="n">
-        <v>36127.916667</v>
+        <v>35281</v>
       </c>
       <c r="E31" t="n">
-        <v>82.06</v>
+        <v>2.875</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1212</v>
+        <v>1193</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3:31 PM</t>
+          <t>3:21 PM</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>36344.033333</v>
+        <v>35773.465</v>
       </c>
       <c r="D32" t="n">
-        <v>36374.033333</v>
+        <v>35803.465</v>
       </c>
       <c r="E32" t="n">
-        <v>13.163333</v>
+        <v>9.34</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1230</v>
+        <v>1202</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3:40 PM</t>
+          <t>3:26 PM</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>36884.13</v>
+        <v>36041.01</v>
       </c>
       <c r="D33" t="n">
-        <v>36914.13</v>
+        <v>36071.01</v>
       </c>
       <c r="E33" t="n">
-        <v>3.52</v>
+        <v>24.126667</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.333333</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1245</v>
+        <v>1214</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3:47 PM</t>
+          <t>3:32 PM</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>37332.09</v>
+        <v>36391.61</v>
       </c>
       <c r="D34" t="n">
-        <v>37362.09</v>
+        <v>36421.61</v>
       </c>
       <c r="E34" t="n">
-        <v>193.12</v>
+        <v>96.52</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1274</v>
+        <v>1230</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4:02 PM</t>
+          <t>3:40 PM</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>38209.85</v>
+        <v>36884.13</v>
       </c>
       <c r="D35" t="n">
-        <v>38239.85</v>
+        <v>36914.13</v>
       </c>
       <c r="E35" t="n">
-        <v>4.86</v>
+        <v>3.52</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.666667</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1323</v>
+        <v>1243</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4:26 PM</t>
+          <t>3:46 PM</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>39677.255</v>
+        <v>37267.225</v>
       </c>
       <c r="D36" t="n">
-        <v>39707.255</v>
+        <v>37297.225</v>
       </c>
       <c r="E36" t="n">
-        <v>57.735</v>
+        <v>9.237500000000001</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1352</v>
+        <v>1276</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4:41 PM</t>
+          <t>4:03 PM</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>40545.91</v>
+        <v>38263.303333</v>
       </c>
       <c r="D37" t="n">
-        <v>40575.91</v>
+        <v>38293.303333</v>
       </c>
       <c r="E37" t="n">
-        <v>3.843333</v>
+        <v>3.406667</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1367</v>
+        <v>1301</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4:48 PM</t>
+          <t>4:15 PM</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>40993.815</v>
+        <v>39012.535</v>
       </c>
       <c r="D38" t="n">
-        <v>41023.815</v>
+        <v>39042.535</v>
       </c>
       <c r="E38" t="n">
-        <v>30.44</v>
+        <v>7.56</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1379</v>
+        <v>1311</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4:54 PM</t>
+          <t>4:20 PM</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>41352.525</v>
+        <v>39315.5</v>
       </c>
       <c r="D39" t="n">
-        <v>41382.525</v>
+        <v>39345.5</v>
       </c>
       <c r="E39" t="n">
-        <v>1.775</v>
+        <v>76.02</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1393</v>
+        <v>1337</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5:01 PM</t>
+          <t>4:33 PM</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>41774.303333</v>
+        <v>40096.696667</v>
       </c>
       <c r="D40" t="n">
-        <v>41804.303333</v>
+        <v>40126.696667</v>
       </c>
       <c r="E40" t="n">
-        <v>14.303333</v>
+        <v>2.046667</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1406</v>
+        <v>1353</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5:08 PM</t>
+          <t>4:42 PM</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>42163.55</v>
+        <v>40589.99</v>
       </c>
       <c r="D41" t="n">
-        <v>42193.55</v>
+        <v>40619.99</v>
       </c>
       <c r="E41" t="n">
-        <v>14.93</v>
+        <v>4.08</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1238,6 +1488,12 @@
       <c r="E42" t="n">
         <v>51.73</v>
       </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1257,157 +1513,211 @@
       <c r="E43" t="n">
         <v>0.9325</v>
       </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1436</v>
+        <v>1444</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5:23 PM</t>
+          <t>5:27 PM</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>43062.525</v>
+        <v>43298.77</v>
       </c>
       <c r="D44" t="n">
-        <v>43092.525</v>
+        <v>43328.77</v>
       </c>
       <c r="E44" t="n">
-        <v>11.06</v>
+        <v>16.795</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1443</v>
+        <v>1479</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5:26 PM</t>
+          <t>5:44 PM</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>43275.036667</v>
+        <v>44340.68</v>
       </c>
       <c r="D45" t="n">
-        <v>43305.036667</v>
+        <v>44370.68</v>
       </c>
       <c r="E45" t="n">
-        <v>14.33</v>
+        <v>49.65</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1451</v>
+        <v>1492</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5:30 PM</t>
+          <t>5:51 PM</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>43516.02</v>
+        <v>44738.87</v>
       </c>
       <c r="D46" t="n">
-        <v>43546.02</v>
+        <v>44768.87</v>
       </c>
       <c r="E46" t="n">
-        <v>88.58</v>
+        <v>22.62</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1481</v>
+        <v>1509</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5:45 PM</t>
+          <t>5:59 PM</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>44405.94</v>
+        <v>45253.9825</v>
       </c>
       <c r="D47" t="n">
-        <v>44435.94</v>
+        <v>45283.9825</v>
       </c>
       <c r="E47" t="n">
-        <v>5.48</v>
+        <v>3.4775</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1535</v>
+        <v>1518</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6:12 PM</t>
+          <t>6:04 PM</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>46024.31</v>
+        <v>45519.58</v>
       </c>
       <c r="D48" t="n">
-        <v>46054.31</v>
+        <v>45549.58</v>
       </c>
       <c r="E48" t="n">
-        <v>7.985</v>
+        <v>5.9</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.333333</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1545</v>
+        <v>1534</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6:17 PM</t>
+          <t>6:12 PM</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>46329.05</v>
+        <v>46012.16</v>
       </c>
       <c r="D49" t="n">
-        <v>46359.05</v>
+        <v>46042.16</v>
       </c>
       <c r="E49" t="n">
-        <v>3.473333</v>
+        <v>2.17</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6:22 PM</t>
+          <t>6:19 PM</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>46615.0725</v>
+        <v>46421.78</v>
       </c>
       <c r="D50" t="n">
-        <v>46645.0725</v>
+        <v>46451.78</v>
       </c>
       <c r="E50" t="n">
-        <v>1.5575</v>
+        <v>0.6875</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1611</v>
+        <v>1569</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6:50 PM</t>
+          <t>6:30 PM</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>48310.16</v>
+        <v>47068.13</v>
       </c>
       <c r="D51" t="n">
-        <v>48340.16</v>
+        <v>47098.13</v>
       </c>
       <c r="E51" t="n">
-        <v>3.305</v>
+        <v>2.06</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/sample.its_50snippets_random.xlsx
+++ b/output/sample.its_50snippets_random.xlsx
@@ -472,46 +472,46 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5:26 AM</t>
+          <t>5:30 AM</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>44.352</v>
+        <v>314.296667</v>
       </c>
       <c r="D2" t="n">
-        <v>74.352</v>
+        <v>344.296667</v>
       </c>
       <c r="E2" t="n">
-        <v>3.348</v>
+        <v>13.32</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6:05 AM</t>
+          <t>5:42 AM</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2369.39</v>
+        <v>1031.27</v>
       </c>
       <c r="D3" t="n">
-        <v>2399.39</v>
+        <v>1061.27</v>
       </c>
       <c r="E3" t="n">
-        <v>4.37</v>
+        <v>2.206667</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -522,46 +522,46 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6:16 AM</t>
+          <t>6:07 AM</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3079.71</v>
+        <v>2509.07</v>
       </c>
       <c r="D4" t="n">
-        <v>3109.71</v>
+        <v>2539.07</v>
       </c>
       <c r="E4" t="n">
-        <v>14.55</v>
+        <v>3.404</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6:20 AM</t>
+          <t>6:21 AM</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3312.795</v>
+        <v>3346.1575</v>
       </c>
       <c r="D5" t="n">
-        <v>3342.795</v>
+        <v>3376.1575</v>
       </c>
       <c r="E5" t="n">
-        <v>0.808333</v>
+        <v>1.225</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -572,71 +572,71 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6:25 AM</t>
+          <t>6:31 AM</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3614.45</v>
+        <v>3944.838333</v>
       </c>
       <c r="D6" t="n">
-        <v>3644.45</v>
+        <v>3974.838333</v>
       </c>
       <c r="E6" t="n">
-        <v>3.595</v>
+        <v>1.058333</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.166667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6:31 AM</t>
+          <t>6:39 AM</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3944.838333</v>
+        <v>4424.9775</v>
       </c>
       <c r="D7" t="n">
-        <v>3974.838333</v>
+        <v>4454.9775</v>
       </c>
       <c r="E7" t="n">
-        <v>1.058333</v>
+        <v>5.47</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.166667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6:38 AM</t>
+          <t>6:43 AM</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4379.04</v>
+        <v>4674.78</v>
       </c>
       <c r="D8" t="n">
-        <v>4409.04</v>
+        <v>4704.78</v>
       </c>
       <c r="E8" t="n">
-        <v>3.49</v>
+        <v>5.42</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -647,71 +647,71 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6:49 AM</t>
+          <t>6:58 AM</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5046.976667</v>
+        <v>5545.74</v>
       </c>
       <c r="D9" t="n">
-        <v>5076.976667</v>
+        <v>5575.74</v>
       </c>
       <c r="E9" t="n">
-        <v>4.816667</v>
+        <v>7.94</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6:58 AM</t>
+          <t>7:16 AM</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5567.224</v>
+        <v>6626.76</v>
       </c>
       <c r="D10" t="n">
-        <v>5597.224</v>
+        <v>6656.76</v>
       </c>
       <c r="E10" t="n">
-        <v>4.226</v>
+        <v>3.56</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7:16 AM</t>
+          <t>7:29 AM</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6648.33</v>
+        <v>7455.21</v>
       </c>
       <c r="D11" t="n">
-        <v>6678.33</v>
+        <v>7485.21</v>
       </c>
       <c r="E11" t="n">
-        <v>2.5925</v>
+        <v>11.435</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -722,46 +722,46 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7:22 AM</t>
+          <t>7:33 AM</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7006.473333</v>
+        <v>7665.623333</v>
       </c>
       <c r="D12" t="n">
-        <v>7036.473333</v>
+        <v>7695.623333</v>
       </c>
       <c r="E12" t="n">
-        <v>3.553333</v>
+        <v>5.7</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.346667</v>
       </c>
       <c r="G12" t="n">
-        <v>0.333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7:26 AM</t>
+          <t>7:41 AM</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7276.68</v>
+        <v>8128.61</v>
       </c>
       <c r="D13" t="n">
-        <v>7306.68</v>
+        <v>8158.61</v>
       </c>
       <c r="E13" t="n">
-        <v>9.06</v>
+        <v>7.54</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -772,71 +772,71 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7:30 AM</t>
+          <t>7:45 AM</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7516.66</v>
+        <v>8407.135</v>
       </c>
       <c r="D14" t="n">
-        <v>7546.66</v>
+        <v>8437.135</v>
       </c>
       <c r="E14" t="n">
-        <v>27.63</v>
+        <v>1.65</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7:47 AM</t>
+          <t>7:49 AM</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8510.639999999999</v>
+        <v>8619.565000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>8540.639999999999</v>
+        <v>8649.565000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.98</v>
+        <v>1.59</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8:11 AM</t>
+          <t>8:10 AM</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>9944.236666999999</v>
+        <v>9903.9</v>
       </c>
       <c r="D16" t="n">
-        <v>9974.236666999999</v>
+        <v>9933.9</v>
       </c>
       <c r="E16" t="n">
-        <v>1.893333</v>
+        <v>66.37</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -847,21 +847,21 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8:19 AM</t>
+          <t>8:16 AM</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>10436.51</v>
+        <v>10238.38</v>
       </c>
       <c r="D17" t="n">
-        <v>10466.51</v>
+        <v>10268.38</v>
       </c>
       <c r="E17" t="n">
-        <v>3.915</v>
+        <v>2.085</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -872,21 +872,21 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8:27 AM</t>
+          <t>8:20 AM</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>10930.83</v>
+        <v>10514.064286</v>
       </c>
       <c r="D18" t="n">
-        <v>10960.83</v>
+        <v>10544.064286</v>
       </c>
       <c r="E18" t="n">
-        <v>15.57</v>
+        <v>2.311429</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -897,49 +897,49 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8:34 AM</t>
+          <t>8:30 AM</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>11323.225</v>
+        <v>11104.845</v>
       </c>
       <c r="D19" t="n">
-        <v>11353.225</v>
+        <v>11134.845</v>
       </c>
       <c r="E19" t="n">
-        <v>8.6</v>
+        <v>4.43</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>407</v>
+        <v>381</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8:48 AM</t>
+          <t>8:35 AM</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>12193.74</v>
+        <v>11413.92</v>
       </c>
       <c r="D20" t="n">
-        <v>12223.74</v>
+        <v>11443.92</v>
       </c>
       <c r="E20" t="n">
-        <v>1.355</v>
+        <v>1.94</v>
       </c>
       <c r="F20" t="n">
-        <v>58.128333</v>
+        <v>19.395</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -947,24 +947,24 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>527</v>
+        <v>488</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>9:48 AM</t>
+          <t>9:29 AM</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>15787.9</v>
+        <v>14621.995</v>
       </c>
       <c r="D21" t="n">
-        <v>15817.9</v>
+        <v>14651.995</v>
       </c>
       <c r="E21" t="n">
-        <v>2.94</v>
+        <v>1.415</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>113.915</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -972,21 +972,21 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>567</v>
+        <v>519</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>10:08 A</t>
+          <t>9:44 AM</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>16994.61</v>
+        <v>15550.62</v>
       </c>
       <c r="D22" t="n">
-        <v>17024.61</v>
+        <v>15580.62</v>
       </c>
       <c r="E22" t="n">
-        <v>7.28</v>
+        <v>2.52</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -997,21 +997,21 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>980</v>
+        <v>526</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1:35 PM</t>
+          <t>9:48 AM</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>29392.66</v>
+        <v>15765.516667</v>
       </c>
       <c r="D23" t="n">
-        <v>29422.66</v>
+        <v>15795.516667</v>
       </c>
       <c r="E23" t="n">
-        <v>6.8</v>
+        <v>5.23</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1022,71 +1022,71 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>991</v>
+        <v>545</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1:40 PM</t>
+          <t>9:57 AM</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>29712.875</v>
+        <v>16330.63</v>
       </c>
       <c r="D24" t="n">
-        <v>29742.875</v>
+        <v>16360.63</v>
       </c>
       <c r="E24" t="n">
-        <v>10.58</v>
+        <v>1.686667</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1003</v>
+        <v>572</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1:46 PM</t>
+          <t>10:11 A</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>30076.196667</v>
+        <v>17146.84</v>
       </c>
       <c r="D25" t="n">
-        <v>30106.196667</v>
+        <v>17176.84</v>
       </c>
       <c r="E25" t="n">
-        <v>3.146667</v>
+        <v>6.193333</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1030</v>
+        <v>991</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2:00 PM</t>
+          <t>1:40 PM</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>30884.16</v>
+        <v>29712.875</v>
       </c>
       <c r="D26" t="n">
-        <v>30914.16</v>
+        <v>29742.875</v>
       </c>
       <c r="E26" t="n">
-        <v>9.41</v>
+        <v>10.58</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1097,24 +1097,24 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1049</v>
+        <v>1000</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2:09 PM</t>
+          <t>1:45 PM</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>31454.845</v>
+        <v>29983.822</v>
       </c>
       <c r="D27" t="n">
-        <v>31484.845</v>
+        <v>30013.822</v>
       </c>
       <c r="E27" t="n">
-        <v>4.085</v>
+        <v>2.52</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>0.482</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1122,46 +1122,46 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1090</v>
+        <v>1042</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2:30 PM</t>
+          <t>2:06 PM</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>32688.42</v>
+        <v>31251.5775</v>
       </c>
       <c r="D28" t="n">
-        <v>32718.42</v>
+        <v>31281.5775</v>
       </c>
       <c r="E28" t="n">
-        <v>19.165</v>
+        <v>11.14</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1104</v>
+        <v>1065</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2:37 PM</t>
+          <t>2:17 PM</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>33100.574</v>
+        <v>31927.45</v>
       </c>
       <c r="D29" t="n">
-        <v>33130.574</v>
+        <v>31957.45</v>
       </c>
       <c r="E29" t="n">
-        <v>2.998</v>
+        <v>12.815</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1172,24 +1172,24 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1158</v>
+        <v>1076</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3:04 PM</t>
+          <t>2:23 PM</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>34727.39</v>
+        <v>32264.416667</v>
       </c>
       <c r="D30" t="n">
-        <v>34757.39</v>
+        <v>32294.416667</v>
       </c>
       <c r="E30" t="n">
-        <v>1.79</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.333333</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1197,46 +1197,46 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1176</v>
+        <v>1103</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3:13 PM</t>
+          <t>2:36 PM</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>35251</v>
+        <v>33070.88</v>
       </c>
       <c r="D31" t="n">
-        <v>35281</v>
+        <v>33100.88</v>
       </c>
       <c r="E31" t="n">
-        <v>2.875</v>
+        <v>25.1</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1193</v>
+        <v>1144</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3:21 PM</t>
+          <t>2:57 PM</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>35773.465</v>
+        <v>34295.06</v>
       </c>
       <c r="D32" t="n">
-        <v>35803.465</v>
+        <v>34325.06</v>
       </c>
       <c r="E32" t="n">
-        <v>9.34</v>
+        <v>2.785</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1247,196 +1247,196 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1202</v>
+        <v>1154</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3:26 PM</t>
+          <t>3:02 PM</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>36041.01</v>
+        <v>34618.26</v>
       </c>
       <c r="D33" t="n">
-        <v>36071.01</v>
+        <v>34648.26</v>
       </c>
       <c r="E33" t="n">
-        <v>24.126667</v>
+        <v>1.505</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1214</v>
+        <v>1173</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3:32 PM</t>
+          <t>3:11 PM</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>36391.61</v>
+        <v>35173.265</v>
       </c>
       <c r="D34" t="n">
-        <v>36421.61</v>
+        <v>35203.265</v>
       </c>
       <c r="E34" t="n">
-        <v>96.52</v>
+        <v>2.2825</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1230</v>
+        <v>1216</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3:40 PM</t>
+          <t>3:33 PM</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>36884.13</v>
+        <v>36464.233333</v>
       </c>
       <c r="D35" t="n">
-        <v>36914.13</v>
+        <v>36494.233333</v>
       </c>
       <c r="E35" t="n">
-        <v>3.52</v>
+        <v>7.393333</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1243</v>
+        <v>1224</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3:46 PM</t>
+          <t>3:37 PM</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>37267.225</v>
+        <v>36710.185</v>
       </c>
       <c r="D36" t="n">
-        <v>37297.225</v>
+        <v>36740.185</v>
       </c>
       <c r="E36" t="n">
-        <v>9.237500000000001</v>
+        <v>3.49</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1276</v>
+        <v>1235</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4:03 PM</t>
+          <t>3:42 PM</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>38263.303333</v>
+        <v>37028.365</v>
       </c>
       <c r="D37" t="n">
-        <v>38293.303333</v>
+        <v>37058.365</v>
       </c>
       <c r="E37" t="n">
-        <v>3.406667</v>
+        <v>6.5</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1301</v>
+        <v>1245</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4:15 PM</t>
+          <t>3:47 PM</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>39012.535</v>
+        <v>37332.09</v>
       </c>
       <c r="D38" t="n">
-        <v>39042.535</v>
+        <v>37362.09</v>
       </c>
       <c r="E38" t="n">
-        <v>7.56</v>
+        <v>193.12</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1311</v>
+        <v>1277</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4:20 PM</t>
+          <t>4:03 PM</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>39315.5</v>
+        <v>38285.38</v>
       </c>
       <c r="D39" t="n">
-        <v>39345.5</v>
+        <v>38315.38</v>
       </c>
       <c r="E39" t="n">
-        <v>76.02</v>
+        <v>25.395</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1337</v>
+        <v>1289</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4:33 PM</t>
+          <t>4:09 PM</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>40096.696667</v>
+        <v>38650.62</v>
       </c>
       <c r="D40" t="n">
-        <v>40126.696667</v>
+        <v>38680.62</v>
       </c>
       <c r="E40" t="n">
-        <v>2.046667</v>
+        <v>88.59</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1447,21 +1447,21 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1353</v>
+        <v>1297</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4:42 PM</t>
+          <t>4:13 PM</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>40589.99</v>
+        <v>38885.46</v>
       </c>
       <c r="D41" t="n">
-        <v>40619.99</v>
+        <v>38915.46</v>
       </c>
       <c r="E41" t="n">
-        <v>4.08</v>
+        <v>73.44</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1472,71 +1472,71 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1414</v>
+        <v>1305</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5:12 PM</t>
+          <t>4:18 PM</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>42400.085</v>
+        <v>39149.33</v>
       </c>
       <c r="D42" t="n">
-        <v>42430.085</v>
+        <v>39179.33</v>
       </c>
       <c r="E42" t="n">
-        <v>51.73</v>
+        <v>144.36</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1425</v>
+        <v>1330</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5:17 PM</t>
+          <t>4:30 PM</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>42732.5175</v>
+        <v>39870.99</v>
       </c>
       <c r="D43" t="n">
-        <v>42762.5175</v>
+        <v>39900.99</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9325</v>
+        <v>42.65</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1444</v>
+        <v>1339</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5:27 PM</t>
+          <t>4:34 PM</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>43298.77</v>
+        <v>40148.25</v>
       </c>
       <c r="D44" t="n">
-        <v>43328.77</v>
+        <v>40178.25</v>
       </c>
       <c r="E44" t="n">
-        <v>16.795</v>
+        <v>8.445</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -1547,177 +1547,177 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1479</v>
+        <v>1353</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5:44 PM</t>
+          <t>4:41 PM</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>44340.68</v>
+        <v>40571.0325</v>
       </c>
       <c r="D45" t="n">
-        <v>44370.68</v>
+        <v>40601.0325</v>
       </c>
       <c r="E45" t="n">
-        <v>49.65</v>
+        <v>4.135</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1492</v>
+        <v>1382</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5:51 PM</t>
+          <t>4:56 PM</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>44738.87</v>
+        <v>41437.05</v>
       </c>
       <c r="D46" t="n">
-        <v>44768.87</v>
+        <v>41467.05</v>
       </c>
       <c r="E46" t="n">
-        <v>22.62</v>
+        <v>13.86</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1509</v>
+        <v>1418</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5:59 PM</t>
+          <t>5:14 PM</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>45253.9825</v>
+        <v>42521.595</v>
       </c>
       <c r="D47" t="n">
-        <v>45283.9825</v>
+        <v>42551.595</v>
       </c>
       <c r="E47" t="n">
-        <v>3.4775</v>
+        <v>25.965</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1518</v>
+        <v>1441</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6:04 PM</t>
+          <t>5:25 PM</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>45519.58</v>
+        <v>43223.54</v>
       </c>
       <c r="D48" t="n">
-        <v>45549.58</v>
+        <v>43253.54</v>
       </c>
       <c r="E48" t="n">
-        <v>5.9</v>
+        <v>2.86</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1534</v>
+        <v>1471</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6:12 PM</t>
+          <t>5:41 PM</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>46012.16</v>
+        <v>44128.76</v>
       </c>
       <c r="D49" t="n">
-        <v>46042.16</v>
+        <v>44158.76</v>
       </c>
       <c r="E49" t="n">
-        <v>2.17</v>
+        <v>5.15</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1548</v>
+        <v>1481</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6:19 PM</t>
+          <t>5:45 PM</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>46421.78</v>
+        <v>44405.94</v>
       </c>
       <c r="D50" t="n">
-        <v>46451.78</v>
+        <v>44435.94</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6875</v>
+        <v>5.48</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1569</v>
+        <v>1518</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6:30 PM</t>
+          <t>6:04 PM</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>47068.13</v>
+        <v>45519.58</v>
       </c>
       <c r="D51" t="n">
-        <v>47098.13</v>
+        <v>45549.58</v>
       </c>
       <c r="E51" t="n">
-        <v>2.06</v>
+        <v>5.9</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>0.333333</v>
       </c>
     </row>
   </sheetData>

--- a/output/sample.its_50snippets_random.xlsx
+++ b/output/sample.its_50snippets_random.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,30 +441,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>SegStart</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SegEnd</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>AWC</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>TVN</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTC</t>
         </is>
@@ -472,1252 +467,1002 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>5:30 AM</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8.733333</v>
       </c>
       <c r="C2" t="n">
-        <v>314.296667</v>
+        <v>38.733333</v>
       </c>
       <c r="D2" t="n">
-        <v>344.296667</v>
+        <v>12.843333</v>
       </c>
       <c r="E2" t="n">
-        <v>13.32</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>35</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>5:42 AM</t>
-        </is>
+        <v>13</v>
+      </c>
+      <c r="B3" t="n">
+        <v>371.525</v>
       </c>
       <c r="C3" t="n">
-        <v>1031.27</v>
+        <v>401.525</v>
       </c>
       <c r="D3" t="n">
-        <v>1061.27</v>
+        <v>8.635</v>
       </c>
       <c r="E3" t="n">
-        <v>2.206667</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>84</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>6:07 AM</t>
-        </is>
+        <v>35</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1031.27</v>
       </c>
       <c r="C4" t="n">
-        <v>2509.07</v>
+        <v>1061.27</v>
       </c>
       <c r="D4" t="n">
-        <v>2539.07</v>
+        <v>2.206667</v>
       </c>
       <c r="E4" t="n">
-        <v>3.404</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>6:21 AM</t>
-        </is>
+        <v>80</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2383.3</v>
       </c>
       <c r="C5" t="n">
-        <v>3346.1575</v>
+        <v>2413.3</v>
       </c>
       <c r="D5" t="n">
-        <v>3376.1575</v>
+        <v>3.9275</v>
       </c>
       <c r="E5" t="n">
-        <v>1.225</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>132</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>6:31 AM</t>
-        </is>
+        <v>103</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3079.71</v>
       </c>
       <c r="C6" t="n">
-        <v>3944.838333</v>
+        <v>3109.71</v>
       </c>
       <c r="D6" t="n">
-        <v>3974.838333</v>
+        <v>14.55</v>
       </c>
       <c r="E6" t="n">
-        <v>1.058333</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.166667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>148</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>6:39 AM</t>
-        </is>
+        <v>112</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3346.1575</v>
       </c>
       <c r="C7" t="n">
-        <v>4424.9775</v>
+        <v>3376.1575</v>
       </c>
       <c r="D7" t="n">
-        <v>4454.9775</v>
+        <v>1.225</v>
       </c>
       <c r="E7" t="n">
-        <v>5.47</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>156</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>6:43 AM</t>
-        </is>
+        <v>123</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3667.195</v>
       </c>
       <c r="C8" t="n">
-        <v>4674.78</v>
+        <v>3697.195</v>
       </c>
       <c r="D8" t="n">
-        <v>4704.78</v>
+        <v>7.095</v>
       </c>
       <c r="E8" t="n">
-        <v>5.42</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>185</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>6:58 AM</t>
-        </is>
+        <v>148</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4424.9775</v>
       </c>
       <c r="C9" t="n">
-        <v>5545.74</v>
+        <v>4454.9775</v>
       </c>
       <c r="D9" t="n">
-        <v>5575.74</v>
+        <v>5.47</v>
       </c>
       <c r="E9" t="n">
-        <v>7.94</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>221</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>7:16 AM</t>
-        </is>
+        <v>178</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5325.396667</v>
       </c>
       <c r="C10" t="n">
-        <v>6626.76</v>
+        <v>5355.396667</v>
       </c>
       <c r="D10" t="n">
-        <v>6656.76</v>
+        <v>8.473333</v>
       </c>
       <c r="E10" t="n">
-        <v>3.56</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>249</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>7:29 AM</t>
-        </is>
+        <v>230</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6880.786667</v>
       </c>
       <c r="C11" t="n">
-        <v>7455.21</v>
+        <v>6910.786667</v>
       </c>
       <c r="D11" t="n">
-        <v>7485.21</v>
+        <v>32.193333</v>
       </c>
       <c r="E11" t="n">
-        <v>11.435</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
+        <v>1.333333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>256</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>7:33 AM</t>
-        </is>
+        <v>257</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7691.65</v>
       </c>
       <c r="C12" t="n">
-        <v>7665.623333</v>
+        <v>7721.65</v>
       </c>
       <c r="D12" t="n">
-        <v>7695.623333</v>
+        <v>35.775</v>
       </c>
       <c r="E12" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.346667</v>
-      </c>
-      <c r="G12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>271</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>7:41 AM</t>
-        </is>
+        <v>297</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8884.325000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>8128.61</v>
+        <v>8914.325000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>8158.61</v>
+        <v>4.97</v>
       </c>
       <c r="E13" t="n">
-        <v>7.54</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>281</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>7:45 AM</t>
-        </is>
+        <v>332</v>
+      </c>
+      <c r="B14" t="n">
+        <v>9944.236666999999</v>
       </c>
       <c r="C14" t="n">
-        <v>8407.135</v>
+        <v>9974.236666999999</v>
       </c>
       <c r="D14" t="n">
-        <v>8437.135</v>
+        <v>1.893333</v>
       </c>
       <c r="E14" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>288</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>7:49 AM</t>
-        </is>
+        <v>349</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10459.5</v>
       </c>
       <c r="C15" t="n">
-        <v>8619.565000000001</v>
+        <v>10489.5</v>
       </c>
       <c r="D15" t="n">
-        <v>8649.565000000001</v>
+        <v>1.52</v>
       </c>
       <c r="E15" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>331</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>8:10 AM</t>
-        </is>
+        <v>369</v>
+      </c>
+      <c r="B16" t="n">
+        <v>11056.043333</v>
       </c>
       <c r="C16" t="n">
-        <v>9903.9</v>
+        <v>11086.043333</v>
       </c>
       <c r="D16" t="n">
-        <v>9933.9</v>
+        <v>1.015</v>
       </c>
       <c r="E16" t="n">
-        <v>66.37</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>342</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>8:16 AM</t>
-        </is>
+        <v>377</v>
+      </c>
+      <c r="B17" t="n">
+        <v>11305.19</v>
       </c>
       <c r="C17" t="n">
-        <v>10238.38</v>
+        <v>11335.19</v>
       </c>
       <c r="D17" t="n">
-        <v>10268.38</v>
+        <v>1.59</v>
       </c>
       <c r="E17" t="n">
-        <v>2.085</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>351</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>8:20 AM</t>
-        </is>
+        <v>394</v>
+      </c>
+      <c r="B18" t="n">
+        <v>11805.336667</v>
       </c>
       <c r="C18" t="n">
-        <v>10514.064286</v>
+        <v>11835.336667</v>
       </c>
       <c r="D18" t="n">
-        <v>10544.064286</v>
+        <v>2.63</v>
       </c>
       <c r="E18" t="n">
-        <v>2.311429</v>
+        <v>4.473333</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
+        <v>0.333333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>371</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>8:30 AM</t>
-        </is>
+        <v>483</v>
+      </c>
+      <c r="B19" t="n">
+        <v>14475.5375</v>
       </c>
       <c r="C19" t="n">
-        <v>11104.845</v>
+        <v>14505.5375</v>
       </c>
       <c r="D19" t="n">
-        <v>11134.845</v>
+        <v>1.575</v>
       </c>
       <c r="E19" t="n">
-        <v>4.43</v>
+        <v>3.84</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>381</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>8:35 AM</t>
-        </is>
+        <v>526</v>
+      </c>
+      <c r="B20" t="n">
+        <v>15765.516667</v>
       </c>
       <c r="C20" t="n">
-        <v>11413.92</v>
+        <v>15795.516667</v>
       </c>
       <c r="D20" t="n">
-        <v>11443.92</v>
+        <v>5.23</v>
       </c>
       <c r="E20" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>19.395</v>
-      </c>
-      <c r="G20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>488</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>9:29 AM</t>
-        </is>
+        <v>551</v>
+      </c>
+      <c r="B21" t="n">
+        <v>16510.883333</v>
       </c>
       <c r="C21" t="n">
-        <v>14621.995</v>
+        <v>16540.883333</v>
       </c>
       <c r="D21" t="n">
-        <v>14651.995</v>
+        <v>1.326667</v>
       </c>
       <c r="E21" t="n">
-        <v>1.415</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>113.915</v>
-      </c>
-      <c r="G21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>519</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>9:44 AM</t>
-        </is>
+        <v>573</v>
+      </c>
+      <c r="B22" t="n">
+        <v>17187.22</v>
       </c>
       <c r="C22" t="n">
-        <v>15550.62</v>
+        <v>17217.22</v>
       </c>
       <c r="D22" t="n">
-        <v>15580.62</v>
+        <v>3.39</v>
       </c>
       <c r="E22" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>526</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>9:48 AM</t>
-        </is>
+        <v>988</v>
+      </c>
+      <c r="B23" t="n">
+        <v>29624.0375</v>
       </c>
       <c r="C23" t="n">
-        <v>15765.516667</v>
+        <v>29654.0375</v>
       </c>
       <c r="D23" t="n">
-        <v>15795.516667</v>
+        <v>5.165</v>
       </c>
       <c r="E23" t="n">
-        <v>5.23</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>545</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>9:57 AM</t>
-        </is>
+        <v>1010</v>
+      </c>
+      <c r="B24" t="n">
+        <v>30291.8775</v>
       </c>
       <c r="C24" t="n">
-        <v>16330.63</v>
+        <v>30321.8775</v>
       </c>
       <c r="D24" t="n">
-        <v>16360.63</v>
+        <v>6.6275</v>
       </c>
       <c r="E24" t="n">
-        <v>1.686667</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>572</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>10:11 A</t>
-        </is>
+        <v>1022</v>
+      </c>
+      <c r="B25" t="n">
+        <v>30644.296667</v>
       </c>
       <c r="C25" t="n">
-        <v>17146.84</v>
+        <v>30674.296667</v>
       </c>
       <c r="D25" t="n">
-        <v>17176.84</v>
+        <v>24.493333</v>
       </c>
       <c r="E25" t="n">
-        <v>6.193333</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1</v>
+        <v>2.333333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>991</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>1:40 PM</t>
-        </is>
+        <v>1048</v>
+      </c>
+      <c r="B26" t="n">
+        <v>31421.85</v>
       </c>
       <c r="C26" t="n">
-        <v>29712.875</v>
+        <v>31451.85</v>
       </c>
       <c r="D26" t="n">
-        <v>29742.875</v>
+        <v>4.695</v>
       </c>
       <c r="E26" t="n">
-        <v>10.58</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>1:45 PM</t>
-        </is>
+        <v>1071</v>
+      </c>
+      <c r="B27" t="n">
+        <v>32129.44</v>
       </c>
       <c r="C27" t="n">
-        <v>29983.822</v>
+        <v>32159.44</v>
       </c>
       <c r="D27" t="n">
-        <v>30013.822</v>
+        <v>7.74</v>
       </c>
       <c r="E27" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.482</v>
-      </c>
-      <c r="G27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1042</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2:06 PM</t>
-        </is>
+        <v>1085</v>
+      </c>
+      <c r="B28" t="n">
+        <v>32536.5</v>
       </c>
       <c r="C28" t="n">
-        <v>31251.5775</v>
+        <v>32566.5</v>
       </c>
       <c r="D28" t="n">
-        <v>31281.5775</v>
+        <v>0.8375</v>
       </c>
       <c r="E28" t="n">
-        <v>11.14</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1065</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2:17 PM</t>
-        </is>
+        <v>1093</v>
+      </c>
+      <c r="B29" t="n">
+        <v>32778.486667</v>
       </c>
       <c r="C29" t="n">
-        <v>31927.45</v>
+        <v>32808.486667</v>
       </c>
       <c r="D29" t="n">
-        <v>31957.45</v>
+        <v>4.853333</v>
       </c>
       <c r="E29" t="n">
-        <v>12.815</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1076</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2:23 PM</t>
-        </is>
+        <v>1166</v>
+      </c>
+      <c r="B30" t="n">
+        <v>34958.575</v>
       </c>
       <c r="C30" t="n">
-        <v>32264.416667</v>
+        <v>34988.575</v>
       </c>
       <c r="D30" t="n">
-        <v>32294.416667</v>
+        <v>2.23</v>
       </c>
       <c r="E30" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.333333</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1103</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2:36 PM</t>
-        </is>
+        <v>1173</v>
+      </c>
+      <c r="B31" t="n">
+        <v>35173.265</v>
       </c>
       <c r="C31" t="n">
-        <v>33070.88</v>
+        <v>35203.265</v>
       </c>
       <c r="D31" t="n">
-        <v>33100.88</v>
+        <v>2.2825</v>
       </c>
       <c r="E31" t="n">
-        <v>25.1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1144</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2:57 PM</t>
-        </is>
+        <v>1184</v>
+      </c>
+      <c r="B32" t="n">
+        <v>35509.095</v>
       </c>
       <c r="C32" t="n">
-        <v>34295.06</v>
+        <v>35539.095</v>
       </c>
       <c r="D32" t="n">
-        <v>34325.06</v>
+        <v>10.99</v>
       </c>
       <c r="E32" t="n">
-        <v>2.785</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1154</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>3:02 PM</t>
-        </is>
+        <v>1224</v>
+      </c>
+      <c r="B33" t="n">
+        <v>36710.185</v>
       </c>
       <c r="C33" t="n">
-        <v>34618.26</v>
+        <v>36740.185</v>
       </c>
       <c r="D33" t="n">
-        <v>34648.26</v>
+        <v>3.49</v>
       </c>
       <c r="E33" t="n">
-        <v>1.505</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1173</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>3:11 PM</t>
-        </is>
+        <v>1239</v>
+      </c>
+      <c r="B34" t="n">
+        <v>37140.8</v>
       </c>
       <c r="C34" t="n">
-        <v>35173.265</v>
+        <v>37170.8</v>
       </c>
       <c r="D34" t="n">
-        <v>35203.265</v>
+        <v>12.78</v>
       </c>
       <c r="E34" t="n">
-        <v>2.2825</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1216</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>3:33 PM</t>
-        </is>
+        <v>1259</v>
+      </c>
+      <c r="B35" t="n">
+        <v>37752.58</v>
       </c>
       <c r="C35" t="n">
-        <v>36464.233333</v>
+        <v>37782.58</v>
       </c>
       <c r="D35" t="n">
-        <v>36494.233333</v>
+        <v>5.336667</v>
       </c>
       <c r="E35" t="n">
-        <v>7.393333</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1224</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>3:37 PM</t>
-        </is>
+        <v>1267</v>
+      </c>
+      <c r="B36" t="n">
+        <v>37993.783333</v>
       </c>
       <c r="C36" t="n">
-        <v>36710.185</v>
+        <v>38023.783333</v>
       </c>
       <c r="D36" t="n">
-        <v>36740.185</v>
+        <v>5.263333</v>
       </c>
       <c r="E36" t="n">
-        <v>3.49</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1235</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>3:42 PM</t>
-        </is>
+        <v>1283</v>
+      </c>
+      <c r="B37" t="n">
+        <v>38479.19</v>
       </c>
       <c r="C37" t="n">
-        <v>37028.365</v>
+        <v>38509.19</v>
       </c>
       <c r="D37" t="n">
-        <v>37058.365</v>
+        <v>51.24</v>
       </c>
       <c r="E37" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1245</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>3:47 PM</t>
-        </is>
+        <v>1311</v>
+      </c>
+      <c r="B38" t="n">
+        <v>39315.5</v>
       </c>
       <c r="C38" t="n">
-        <v>37332.09</v>
+        <v>39345.5</v>
       </c>
       <c r="D38" t="n">
-        <v>37362.09</v>
+        <v>76.02</v>
       </c>
       <c r="E38" t="n">
-        <v>193.12</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1277</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>4:03 PM</t>
-        </is>
+        <v>1323</v>
+      </c>
+      <c r="B39" t="n">
+        <v>39677.255</v>
       </c>
       <c r="C39" t="n">
-        <v>38285.38</v>
+        <v>39707.255</v>
       </c>
       <c r="D39" t="n">
-        <v>38315.38</v>
+        <v>57.735</v>
       </c>
       <c r="E39" t="n">
-        <v>25.395</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1289</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>4:09 PM</t>
-        </is>
+        <v>1333</v>
+      </c>
+      <c r="B40" t="n">
+        <v>39975.185</v>
       </c>
       <c r="C40" t="n">
-        <v>38650.62</v>
+        <v>40005.185</v>
       </c>
       <c r="D40" t="n">
-        <v>38680.62</v>
+        <v>26.385</v>
       </c>
       <c r="E40" t="n">
-        <v>88.59</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1297</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>4:13 PM</t>
-        </is>
+        <v>1348</v>
+      </c>
+      <c r="B41" t="n">
+        <v>40422.016667</v>
       </c>
       <c r="C41" t="n">
-        <v>38885.46</v>
+        <v>40452.016667</v>
       </c>
       <c r="D41" t="n">
-        <v>38915.46</v>
+        <v>1.19</v>
       </c>
       <c r="E41" t="n">
-        <v>73.44</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1305</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>4:18 PM</t>
-        </is>
+        <v>1370</v>
+      </c>
+      <c r="B42" t="n">
+        <v>41074.77</v>
       </c>
       <c r="C42" t="n">
-        <v>39149.33</v>
+        <v>41104.77</v>
       </c>
       <c r="D42" t="n">
-        <v>39179.33</v>
+        <v>24.045</v>
       </c>
       <c r="E42" t="n">
-        <v>144.36</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1330</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>4:30 PM</t>
-        </is>
+        <v>1390</v>
+      </c>
+      <c r="B43" t="n">
+        <v>41680.48</v>
       </c>
       <c r="C43" t="n">
-        <v>39870.99</v>
+        <v>41710.48</v>
       </c>
       <c r="D43" t="n">
-        <v>39900.99</v>
+        <v>38.76</v>
       </c>
       <c r="E43" t="n">
-        <v>42.65</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1339</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>4:34 PM</t>
-        </is>
+        <v>1405</v>
+      </c>
+      <c r="B44" t="n">
+        <v>42148.89</v>
       </c>
       <c r="C44" t="n">
-        <v>40148.25</v>
+        <v>42178.89</v>
       </c>
       <c r="D44" t="n">
-        <v>40178.25</v>
+        <v>6.92</v>
       </c>
       <c r="E44" t="n">
-        <v>8.445</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1353</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>4:41 PM</t>
-        </is>
+        <v>1418</v>
+      </c>
+      <c r="B45" t="n">
+        <v>42521.595</v>
       </c>
       <c r="C45" t="n">
-        <v>40571.0325</v>
+        <v>42551.595</v>
       </c>
       <c r="D45" t="n">
-        <v>40601.0325</v>
+        <v>25.965</v>
       </c>
       <c r="E45" t="n">
-        <v>4.135</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1382</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>4:56 PM</t>
-        </is>
+        <v>1441</v>
+      </c>
+      <c r="B46" t="n">
+        <v>43229.93</v>
       </c>
       <c r="C46" t="n">
-        <v>41437.05</v>
+        <v>43259.93</v>
       </c>
       <c r="D46" t="n">
-        <v>41467.05</v>
+        <v>24.11</v>
       </c>
       <c r="E46" t="n">
-        <v>13.86</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1418</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>5:14 PM</t>
-        </is>
+        <v>1465</v>
+      </c>
+      <c r="B47" t="n">
+        <v>43940.47</v>
       </c>
       <c r="C47" t="n">
-        <v>42521.595</v>
+        <v>43970.47</v>
       </c>
       <c r="D47" t="n">
-        <v>42551.595</v>
+        <v>2.665</v>
       </c>
       <c r="E47" t="n">
-        <v>25.965</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1441</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>5:25 PM</t>
-        </is>
+        <v>1475</v>
+      </c>
+      <c r="B48" t="n">
+        <v>44227.06</v>
       </c>
       <c r="C48" t="n">
-        <v>43223.54</v>
+        <v>44257.06</v>
       </c>
       <c r="D48" t="n">
-        <v>43253.54</v>
+        <v>46.02</v>
       </c>
       <c r="E48" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
+        <v>1.333333</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1471</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>5:41 PM</t>
-        </is>
+        <v>1515</v>
+      </c>
+      <c r="B49" t="n">
+        <v>45447.26</v>
       </c>
       <c r="C49" t="n">
-        <v>44128.76</v>
+        <v>45477.26</v>
       </c>
       <c r="D49" t="n">
-        <v>44158.76</v>
+        <v>7.07</v>
       </c>
       <c r="E49" t="n">
-        <v>5.15</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1481</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>5:45 PM</t>
-        </is>
+        <v>1535</v>
+      </c>
+      <c r="B50" t="n">
+        <v>46045.17</v>
       </c>
       <c r="C50" t="n">
-        <v>44405.94</v>
+        <v>46075.17</v>
       </c>
       <c r="D50" t="n">
-        <v>44435.94</v>
+        <v>0.37</v>
       </c>
       <c r="E50" t="n">
-        <v>5.48</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1518</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>6:04 PM</t>
-        </is>
+        <v>1569</v>
+      </c>
+      <c r="B51" t="n">
+        <v>47068.13</v>
       </c>
       <c r="C51" t="n">
-        <v>45519.58</v>
+        <v>47098.13</v>
       </c>
       <c r="D51" t="n">
-        <v>45549.58</v>
+        <v>2.06</v>
       </c>
       <c r="E51" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.333333</v>
       </c>
     </row>
   </sheetData>
